--- a/input/DB_companion_animal.xlsx
+++ b/input/DB_companion_animal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2023 work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\AppData\Roaming\MobaXterm\slash\RemoteFiles\5834698_3_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEF02E8-FD92-4865-A3C8-ABB081C56788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BF3237-0BEE-43D9-9EC5-2823F8207374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="530" yWindow="420" windowWidth="16220" windowHeight="8400" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="expected_body_weight_dog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="364">
   <si>
     <t>dog_breed</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,9 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고든세터</t>
-  </si>
-  <si>
     <t>골든리트리버</t>
   </si>
   <si>
@@ -894,9 +891,6 @@
     <t>Great Danes</t>
   </si>
   <si>
-    <t>Newfoundlands</t>
-  </si>
-  <si>
     <t>cat_group</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,10 +1076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vitamin B2 (Riboflavin)*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Vitamin B5 (Pantothenic acid)</t>
   </si>
   <si>
@@ -1171,6 +1161,26 @@
   </si>
   <si>
     <t>growth_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutered</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newfoundlands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ca / P ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고든세터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,7 +1188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,8 +1210,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,8 +1237,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1244,13 +1273,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1283,6 +1325,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1566,17 +1635,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D220"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1588,9 +1657,9 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="B2" s="3">
         <v>31</v>
@@ -1600,9 +1669,9 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>32</v>
@@ -1612,9 +1681,9 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>72</v>
@@ -1624,9 +1693,9 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>34</v>
@@ -1636,9 +1705,9 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>24</v>
@@ -1648,9 +1717,9 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>31</v>
@@ -1660,9 +1729,9 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>13</v>
@@ -1672,9 +1741,9 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>7.5</v>
@@ -1684,9 +1753,9 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>16</v>
@@ -1696,9 +1765,9 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>23.5</v>
@@ -1708,9 +1777,9 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>5</v>
@@ -1720,9 +1789,9 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>22</v>
@@ -1732,9 +1801,9 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
@@ -1744,9 +1813,9 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>68</v>
@@ -1756,9 +1825,9 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>9</v>
@@ -1768,9 +1837,9 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>4.8</v>
@@ -1780,9 +1849,9 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>3.5</v>
@@ -1792,9 +1861,9 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>30</v>
@@ -1804,9 +1873,9 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>8</v>
@@ -1816,9 +1885,9 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>50</v>
@@ -1828,9 +1897,9 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>40</v>
@@ -1840,9 +1909,9 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>40</v>
@@ -1852,9 +1921,9 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>60</v>
@@ -1864,9 +1933,9 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>7</v>
@@ -1876,9 +1945,9 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>30</v>
@@ -1888,9 +1957,9 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>32</v>
@@ -1900,9 +1969,9 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>33</v>
@@ -1912,9 +1981,9 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3">
         <v>7.75</v>
@@ -1924,9 +1993,9 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>62</v>
@@ -1936,9 +2005,9 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>7.7</v>
@@ -1948,9 +2017,9 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>36.5</v>
@@ -1960,9 +2029,9 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>50</v>
@@ -1972,9 +2041,9 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>6</v>
@@ -1984,9 +2053,9 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>40</v>
@@ -1996,9 +2065,9 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
         <v>65</v>
@@ -2008,9 +2077,9 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>95</v>
@@ -2020,9 +2089,9 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>45</v>
@@ -2032,9 +2101,9 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>86.5</v>
@@ -2044,9 +2113,9 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
         <v>59.5</v>
@@ -2056,9 +2125,9 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
         <v>54.5</v>
@@ -2068,9 +2137,9 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
         <v>59</v>
@@ -2080,9 +2149,9 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3">
         <v>81</v>
@@ -2092,9 +2161,9 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>3.2</v>
@@ -2104,9 +2173,9 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>24</v>
@@ -2116,9 +2185,9 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>7.7</v>
@@ -2128,9 +2197,9 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3">
         <v>3.65</v>
@@ -2140,9 +2209,9 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3">
         <v>9</v>
@@ -2152,9 +2221,9 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>5</v>
@@ -2164,9 +2233,9 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>11</v>
@@ -2176,9 +2245,9 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>22.6</v>
@@ -2188,9 +2257,9 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3">
         <v>46.7</v>
@@ -2200,9 +2269,9 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <v>9</v>
@@ -2212,9 +2281,9 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>4.75</v>
@@ -2224,9 +2293,9 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>27.5</v>
@@ -2236,9 +2305,9 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>6.5</v>
@@ -2248,9 +2317,9 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
         <v>40.5</v>
@@ -2260,9 +2329,9 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
         <v>37.5</v>
@@ -2272,9 +2341,9 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3">
         <v>38.5</v>
@@ -2284,9 +2353,9 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
         <v>7.75</v>
@@ -2296,9 +2365,9 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
         <v>30</v>
@@ -2308,9 +2377,9 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>3.25</v>
@@ -2320,9 +2389,9 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3">
         <v>25</v>
@@ -2332,9 +2401,9 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3">
         <v>12.5</v>
@@ -2344,9 +2413,9 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3">
         <v>14</v>
@@ -2356,9 +2425,9 @@
       </c>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3">
         <v>25</v>
@@ -2368,9 +2437,9 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3">
         <v>50</v>
@@ -2380,9 +2449,9 @@
       </c>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3">
         <v>4.75</v>
@@ -2392,9 +2461,9 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3">
         <v>34</v>
@@ -2404,9 +2473,9 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3">
         <v>25</v>
@@ -2416,9 +2485,9 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3">
         <v>32</v>
@@ -2428,9 +2497,9 @@
       </c>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3">
         <v>45.5</v>
@@ -2440,9 +2509,9 @@
       </c>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3">
         <v>19.5</v>
@@ -2452,9 +2521,9 @@
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3">
         <v>10.5</v>
@@ -2464,9 +2533,9 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3">
         <v>4</v>
@@ -2476,9 +2545,9 @@
       </c>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3">
         <v>24.5</v>
@@ -2488,9 +2557,9 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3">
         <v>4.05</v>
@@ -2500,9 +2569,9 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="3">
         <v>16</v>
@@ -2512,9 +2581,9 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="3">
         <v>5</v>
@@ -2524,9 +2593,9 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3">
         <v>26</v>
@@ -2536,9 +2605,9 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="3">
         <v>35</v>
@@ -2548,9 +2617,9 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3">
         <v>25</v>
@@ -2560,9 +2629,9 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="3">
         <v>80</v>
@@ -2572,9 +2641,9 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3">
         <v>66.5</v>
@@ -2584,9 +2653,9 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="3">
         <v>9.1999999999999993</v>
@@ -2596,9 +2665,9 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3">
         <v>7.25</v>
@@ -2608,9 +2677,9 @@
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3">
         <v>17</v>
@@ -2620,9 +2689,9 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="3">
         <v>37.5</v>
@@ -2632,9 +2701,9 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3">
         <v>11.5</v>
@@ -2644,9 +2713,9 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3">
         <v>17</v>
@@ -2656,9 +2725,9 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3">
         <v>45</v>
@@ -2668,9 +2737,9 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="3">
         <v>9.25</v>
@@ -2680,9 +2749,9 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="3">
         <v>24</v>
@@ -2692,9 +2761,9 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="3">
         <v>12.5</v>
@@ -2704,9 +2773,9 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="3">
         <v>16</v>
@@ -2716,9 +2785,9 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="3">
         <v>15.5</v>
@@ -2728,9 +2797,9 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="3">
         <v>20</v>
@@ -2740,9 +2809,9 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3">
         <v>18</v>
@@ -2752,9 +2821,9 @@
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="3">
         <v>12.5</v>
@@ -2764,9 +2833,9 @@
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="3">
         <v>17</v>
@@ -2776,9 +2845,9 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="3">
         <v>27.5</v>
@@ -2788,9 +2857,9 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="3">
         <v>22.5</v>
@@ -2800,9 +2869,9 @@
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="3">
         <v>14.5</v>
@@ -2812,9 +2881,9 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3">
         <v>21.5</v>
@@ -2824,9 +2893,9 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3">
         <v>21.5</v>
@@ -2836,9 +2905,9 @@
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="3">
         <v>7.05</v>
@@ -2848,9 +2917,9 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="3">
         <v>35.5</v>
@@ -2860,9 +2929,9 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="3">
         <v>5</v>
@@ -2872,9 +2941,9 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="3">
         <v>5.45</v>
@@ -2884,9 +2953,9 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="3">
         <v>23.5</v>
@@ -2896,9 +2965,9 @@
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="3">
         <v>23.5</v>
@@ -2908,9 +2977,9 @@
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="3">
         <v>18</v>
@@ -2920,9 +2989,9 @@
       </c>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="3">
         <v>25</v>
@@ -2932,9 +3001,9 @@
       </c>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="3">
         <v>9.5</v>
@@ -2944,9 +3013,9 @@
       </c>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B115" s="3">
         <v>23.5</v>
@@ -2956,9 +3025,9 @@
       </c>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B116" s="3">
         <v>5.67</v>
@@ -2968,9 +3037,9 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="3">
         <v>20</v>
@@ -2980,9 +3049,9 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B118" s="3">
         <v>9</v>
@@ -2992,9 +3061,9 @@
       </c>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B119" s="3">
         <v>28</v>
@@ -3004,9 +3073,9 @@
       </c>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3">
         <v>44.5</v>
@@ -3016,9 +3085,9 @@
       </c>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B121" s="3">
         <v>31.5</v>
@@ -3028,9 +3097,9 @@
       </c>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3">
         <v>23</v>
@@ -3040,9 +3109,9 @@
       </c>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B123" s="3">
         <v>29.5</v>
@@ -3052,9 +3121,9 @@
       </c>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" s="3">
         <v>29.5</v>
@@ -3064,9 +3133,9 @@
       </c>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B125" s="3">
         <v>17</v>
@@ -3076,9 +3145,9 @@
       </c>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B126" s="3">
         <v>55</v>
@@ -3088,9 +3157,9 @@
       </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B127" s="3">
         <v>12</v>
@@ -3100,9 +3169,9 @@
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B128" s="3">
         <v>11.5</v>
@@ -3112,9 +3181,9 @@
       </c>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B129" s="3">
         <v>45</v>
@@ -3124,9 +3193,9 @@
       </c>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="3">
         <v>4</v>
@@ -3136,9 +3205,9 @@
       </c>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B131" s="3">
         <v>27</v>
@@ -3148,9 +3217,9 @@
       </c>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B132" s="3">
         <v>38</v>
@@ -3160,9 +3229,9 @@
       </c>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B133" s="3">
         <v>45</v>
@@ -3172,9 +3241,9 @@
       </c>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B134" s="3">
         <v>26</v>
@@ -3184,9 +3253,9 @@
       </c>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B135" s="3">
         <v>28.5</v>
@@ -3196,9 +3265,9 @@
       </c>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B136" s="3">
         <v>4</v>
@@ -3208,9 +3277,9 @@
       </c>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B137" s="3">
         <v>16</v>
@@ -3220,9 +3289,9 @@
       </c>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B138" s="3">
         <v>17.5</v>
@@ -3232,9 +3301,9 @@
       </c>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B139" s="3">
         <v>6.5</v>
@@ -3244,9 +3313,9 @@
       </c>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B140" s="3">
         <v>30</v>
@@ -3256,9 +3325,9 @@
       </c>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B141" s="3">
         <v>35</v>
@@ -3268,9 +3337,9 @@
       </c>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B142" s="3">
         <v>8</v>
@@ -3280,9 +3349,9 @@
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B143" s="3">
         <v>2.4500000000000002</v>
@@ -3292,9 +3361,9 @@
       </c>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B144" s="3">
         <v>27.5</v>
@@ -3304,9 +3373,9 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B145" s="3">
         <v>8.5</v>
@@ -3316,9 +3385,9 @@
       </c>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B146" s="3">
         <v>9.5</v>
@@ -3328,9 +3397,9 @@
       </c>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B147" s="3">
         <v>25</v>
@@ -3340,9 +3409,9 @@
       </c>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B148" s="3">
         <v>3.6</v>
@@ -3352,9 +3421,9 @@
       </c>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="3">
         <v>47.5</v>
@@ -3364,9 +3433,9 @@
       </c>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B150" s="3">
         <v>28.5</v>
@@ -3376,9 +3445,9 @@
       </c>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B151" s="3">
         <v>24.5</v>
@@ -3388,9 +3457,9 @@
       </c>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B152" s="3">
         <v>3.15</v>
@@ -3400,9 +3469,9 @@
       </c>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B153" s="3">
         <v>26</v>
@@ -3412,9 +3481,9 @@
       </c>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B154" s="3">
         <v>26.5</v>
@@ -3424,9 +3493,9 @@
       </c>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B155" s="3">
         <v>7.3</v>
@@ -3436,9 +3505,9 @@
       </c>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B156" s="3">
         <v>35</v>
@@ -3448,9 +3517,9 @@
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B157" s="3">
         <v>28.5</v>
@@ -3460,9 +3529,9 @@
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B158" s="3">
         <v>9</v>
@@ -3472,9 +3541,9 @@
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B159" s="3">
         <v>7.5</v>
@@ -3484,9 +3553,9 @@
       </c>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B160" s="3">
         <v>29.5</v>
@@ -3496,9 +3565,9 @@
       </c>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B161" s="3">
         <v>9.5</v>
@@ -3508,9 +3577,9 @@
       </c>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B162" s="3">
         <v>6</v>
@@ -3520,9 +3589,9 @@
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B163" s="3">
         <v>2.75</v>
@@ -3532,9 +3601,9 @@
       </c>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B164" s="3">
         <v>3.2</v>
@@ -3544,9 +3613,9 @@
       </c>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B165" s="3">
         <v>20.5</v>
@@ -3556,9 +3625,9 @@
       </c>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="3">
         <v>28.5</v>
@@ -3568,9 +3637,9 @@
       </c>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B167" s="3">
         <v>3.85</v>
@@ -3580,9 +3649,9 @@
       </c>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B168" s="3">
         <v>33</v>
@@ -3592,9 +3661,9 @@
       </c>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" s="3">
         <v>1.5</v>
@@ -3604,9 +3673,9 @@
       </c>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B170" s="3">
         <v>7</v>
@@ -3616,9 +3685,9 @@
       </c>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="3">
         <v>15.5</v>
@@ -3628,9 +3697,9 @@
       </c>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B172" s="3">
         <v>14</v>
@@ -3640,9 +3709,9 @@
       </c>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B173" s="3">
         <v>36.5</v>
@@ -3652,9 +3721,9 @@
       </c>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B174" s="3">
         <v>6.75</v>
@@ -3664,9 +3733,9 @@
       </c>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B175" s="3">
         <v>16.5</v>
@@ -3676,9 +3745,9 @@
       </c>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B176" s="3">
         <v>55</v>
@@ -3688,9 +3757,9 @@
       </c>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B177" s="3">
         <v>5</v>
@@ -3700,9 +3769,9 @@
       </c>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B178" s="3">
         <v>24.5</v>
@@ -3712,9 +3781,9 @@
       </c>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B179" s="3">
         <v>17</v>
@@ -3724,9 +3793,9 @@
       </c>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B180" s="3">
         <v>22.5</v>
@@ -3736,9 +3805,9 @@
       </c>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B181" s="3">
         <v>24.5</v>
@@ -3748,9 +3817,9 @@
       </c>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B182" s="3">
         <v>10</v>
@@ -3760,9 +3829,9 @@
       </c>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B183" s="3">
         <v>21.5</v>
@@ -3772,9 +3841,9 @@
       </c>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B184" s="3">
         <v>16.5</v>
@@ -3784,9 +3853,9 @@
       </c>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B185" s="3">
         <v>28.5</v>
@@ -3796,9 +3865,9 @@
       </c>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B186" s="3">
         <v>11</v>
@@ -3808,9 +3877,9 @@
       </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B187" s="3">
         <v>22.5</v>
@@ -3820,9 +3889,9 @@
       </c>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B188" s="3">
         <v>6.8</v>
@@ -3832,9 +3901,9 @@
       </c>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B189" s="3">
         <v>7.2</v>
@@ -3844,9 +3913,9 @@
       </c>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B190" s="3">
         <v>8</v>
@@ -3856,9 +3925,9 @@
       </c>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B191" s="3">
         <v>4</v>
@@ -3868,9 +3937,9 @@
       </c>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B192" s="3">
         <v>12</v>
@@ -3880,9 +3949,9 @@
       </c>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B193" s="3">
         <v>23</v>
@@ -3892,9 +3961,9 @@
       </c>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="3">
         <v>2.0499999999999998</v>
@@ -3904,9 +3973,9 @@
       </c>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B195" s="3">
         <v>8</v>
@@ -3916,9 +3985,9 @@
       </c>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B196" s="3">
         <v>4.5</v>
@@ -3928,9 +3997,9 @@
       </c>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B197" s="3">
         <v>15</v>
@@ -3940,9 +4009,9 @@
       </c>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B198" s="3">
         <v>2.5</v>
@@ -3952,9 +4021,9 @@
       </c>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B199" s="3">
         <v>4.5</v>
@@ -3964,9 +4033,9 @@
       </c>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B200" s="3">
         <v>13</v>
@@ -3976,9 +4045,9 @@
       </c>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B201" s="3">
         <v>25</v>
@@ -3988,9 +4057,9 @@
       </c>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B202" s="3">
         <v>12.5</v>
@@ -4000,9 +4069,9 @@
       </c>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B203" s="3">
         <v>14</v>
@@ -4012,9 +4081,9 @@
       </c>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B204" s="3">
         <v>11</v>
@@ -4024,9 +4093,9 @@
       </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B205" s="3">
         <v>31.5</v>
@@ -4036,9 +4105,9 @@
       </c>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B206" s="3">
         <v>12.5</v>
@@ -4048,9 +4117,9 @@
       </c>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="25" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B207" s="3">
         <v>51</v>
@@ -4060,9 +4129,9 @@
       </c>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B208" s="3">
         <v>11.5</v>
@@ -4072,9 +4141,9 @@
       </c>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B209" s="3">
         <v>19.5</v>
@@ -4084,9 +4153,9 @@
       </c>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B210" s="3">
         <v>24</v>
@@ -4096,9 +4165,9 @@
       </c>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B211" s="3">
         <v>25</v>
@@ -4108,9 +4177,9 @@
       </c>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B212" s="3">
         <v>25</v>
@@ -4120,9 +4189,9 @@
       </c>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B213" s="3">
         <v>10.4</v>
@@ -4132,9 +4201,9 @@
       </c>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B214" s="5">
         <v>25</v>
@@ -4144,9 +4213,9 @@
       </c>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B215" s="6">
         <v>6.8</v>
@@ -4156,9 +4225,9 @@
       </c>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="25" x14ac:dyDescent="0.45">
       <c r="A216" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B216" s="5">
         <v>21</v>
@@ -4168,9 +4237,9 @@
       </c>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A217" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B217" s="5">
         <v>5.89</v>
@@ -4180,9 +4249,9 @@
       </c>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A218" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B218" s="5">
         <v>32</v>
@@ -4192,9 +4261,9 @@
       </c>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B219" s="3">
         <v>0</v>
@@ -4204,7 +4273,7 @@
       </c>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -4213,7 +4282,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4225,16 +4294,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -4243,9 +4312,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B2" s="3">
         <v>4.0999999999999996</v>
@@ -4254,9 +4323,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B3" s="3">
         <v>3.2</v>
@@ -4265,9 +4334,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B4" s="3">
         <v>6.3</v>
@@ -4276,9 +4345,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3">
         <v>4.0999999999999996</v>
@@ -4287,9 +4356,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B6" s="3">
         <v>7.3</v>
@@ -4298,9 +4367,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" s="3">
         <v>3.9</v>
@@ -4309,9 +4378,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="3">
         <v>4.5</v>
@@ -4320,9 +4389,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="3">
         <v>5</v>
@@ -4331,9 +4400,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -4342,9 +4411,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B11" s="3">
         <v>4.8</v>
@@ -4353,9 +4422,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" s="3">
         <v>3.9</v>
@@ -4364,9 +4433,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="3">
         <v>5</v>
@@ -4375,9 +4444,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="3">
         <v>4.3</v>
@@ -4386,9 +4455,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B15" s="3">
         <v>4.3</v>
@@ -4397,9 +4466,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B16" s="3">
         <v>4.8</v>
@@ -4408,9 +4477,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B17" s="3">
         <v>4.3</v>
@@ -4419,9 +4488,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="3">
         <v>4.3</v>
@@ -4430,9 +4499,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B19" s="3">
         <v>4.0999999999999996</v>
@@ -4441,9 +4510,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B20" s="3">
         <v>4.8</v>
@@ -4452,9 +4521,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" s="3">
         <v>4.8</v>
@@ -4463,9 +4532,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B22" s="3">
         <v>3.9</v>
@@ -4474,9 +4543,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B23" s="3">
         <v>4.8</v>
@@ -4485,9 +4554,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B24" s="3">
         <v>5</v>
@@ -4496,9 +4565,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="3">
         <v>3.9</v>
@@ -4507,9 +4576,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="3">
         <v>5.9</v>
@@ -4518,9 +4587,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B27" s="3">
         <v>4.0999999999999996</v>
@@ -4529,9 +4598,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B28" s="3">
         <v>3.4</v>
@@ -4540,9 +4609,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29" s="3">
         <v>4.4000000000000004</v>
@@ -4551,9 +4620,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B30" s="3">
         <v>3.6</v>
@@ -4562,9 +4631,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B31" s="3">
         <v>4.8</v>
@@ -4573,9 +4642,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B32" s="3">
         <v>4.5</v>
@@ -4584,9 +4653,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B33" s="3">
         <v>3.6</v>
@@ -4595,9 +4664,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="3">
         <v>4.5999999999999996</v>
@@ -4606,9 +4675,9 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B35" s="3">
         <v>4.4000000000000004</v>
@@ -4617,9 +4686,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B36" s="3">
         <v>4</v>
@@ -4628,9 +4697,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="3">
         <v>3.1</v>
@@ -4639,9 +4708,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B38" s="3">
         <v>4.0999999999999996</v>
@@ -4650,9 +4719,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="3">
         <v>4.0999999999999996</v>
@@ -4661,9 +4730,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="3">
         <v>1.75</v>
@@ -4672,9 +4741,9 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="3">
         <v>4.5</v>
@@ -4683,9 +4752,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="3">
         <v>6.5</v>
@@ -4694,9 +4763,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B43" s="3">
         <v>6.3</v>
@@ -4705,9 +4774,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -4716,9 +4785,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B45" s="3">
         <v>5.4</v>
@@ -4727,9 +4796,9 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B46" s="3">
         <v>3.7</v>
@@ -4738,9 +4807,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B47" s="3">
         <v>8.1999999999999993</v>
@@ -4749,9 +4818,9 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B48" s="3">
         <v>3.6</v>
@@ -4760,9 +4829,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B49" s="3">
         <v>3.2</v>
@@ -4771,9 +4840,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B50" s="3">
         <v>4.5</v>
@@ -4782,9 +4851,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B51" s="3">
         <v>4.4000000000000004</v>
@@ -4793,9 +4862,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B52" s="3">
         <v>3.9</v>
@@ -4804,9 +4873,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B53" s="3">
         <v>10</v>
@@ -4815,9 +4884,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="3">
         <v>0</v>
@@ -4834,94 +4903,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="80" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="B2" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="10">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="10">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="10">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="10">
         <v>860</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="B9" s="10">
         <v>105</v>
       </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B10" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4930,35 +5011,35 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B2" s="10">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B3" s="10">
         <v>100</v>
@@ -4972,66 +5053,70 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26:L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C2" s="4">
         <v>45</v>
@@ -5046,27 +5131,30 @@
         <v>62.5</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L2" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C3" s="4">
         <v>1.3</v>
@@ -5081,27 +5169,30 @@
         <v>2.04</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C4" s="4">
         <v>0.57999999999999996</v>
@@ -5116,27 +5207,30 @@
         <v>0.98</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L4" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C5" s="4">
         <v>1.1499999999999999</v>
@@ -5151,27 +5245,30 @@
         <v>1.63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L5" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="4">
         <v>2.0499999999999998</v>
@@ -5186,27 +5283,30 @@
         <v>3.23</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4">
         <v>1.05</v>
@@ -5221,7 +5321,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H7" s="4">
         <v>7</v>
@@ -5230,18 +5330,21 @@
         <v>7</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L7" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" s="4">
         <v>1</v>
@@ -5256,27 +5359,30 @@
         <v>0.88</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="4">
         <v>1.91</v>
@@ -5291,27 +5397,30 @@
         <v>1.75</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="4">
         <v>1.35</v>
@@ -5326,27 +5435,30 @@
         <v>1.63</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C11" s="4">
         <v>2.23</v>
@@ -5361,27 +5473,30 @@
         <v>3.25</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="4">
         <v>1.3</v>
@@ -5396,27 +5511,30 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>308</v>
+        <v>313</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L12" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="19" t="s">
+        <v>306</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C13" s="4">
         <v>0.43</v>
@@ -5431,27 +5549,30 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="4">
         <v>1.48</v>
@@ -5466,27 +5587,30 @@
         <v>1.7</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="19" t="s">
+        <v>309</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C15" s="4">
         <v>13.75</v>
@@ -5501,27 +5625,30 @@
         <v>21.25</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="19" t="s">
+        <v>310</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="4">
         <v>3.27</v>
@@ -5536,30 +5663,33 @@
         <v>3.25</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H16" s="4">
         <v>16.25</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L16" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4">
         <v>75</v>
@@ -5571,30 +5701,33 @@
         <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L17" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="19" t="s">
+        <v>314</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D18" s="4">
         <v>0.2</v>
@@ -5606,30 +5739,33 @@
         <v>0.2</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L18" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D19" s="4">
         <v>0.13</v>
@@ -5641,27 +5777,30 @@
         <v>0.13</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="19" t="s">
+        <v>316</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20" s="4">
         <v>1.25</v>
@@ -5670,7 +5809,7 @@
         <v>2.5</v>
       </c>
       <c r="E20" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F20" s="4">
         <v>2.5</v>
@@ -5685,18 +5824,21 @@
         <v>4.5</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L20" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="19" t="s">
+        <v>317</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -5714,24 +5856,27 @@
         <v>4</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>320</v>
+        <v>313</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="19" t="s">
+        <v>318</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C22" s="4">
         <v>1.25</v>
@@ -5746,27 +5891,30 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L22" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="19" t="s">
+        <v>319</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23" s="4">
         <v>0.25</v>
@@ -5792,16 +5940,19 @@
       <c r="J23" s="4">
         <v>3.75</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" s="4">
         <v>0.38</v>
@@ -5827,16 +5978,19 @@
       <c r="J24" s="4">
         <v>5.87</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>323</v>
+      <c r="K24" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L24" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="19" t="s">
+        <v>321</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" s="4">
         <v>0.18</v>
@@ -5851,27 +6005,30 @@
         <v>0.1</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L25" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C26" s="4">
         <v>1.8</v>
@@ -5886,27 +6043,30 @@
         <v>2.75</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K26" s="4">
+        <v>313</v>
+      </c>
+      <c r="K26" s="15">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C27" s="4">
         <v>0.26</v>
@@ -5921,27 +6081,30 @@
         <v>0.38</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K27" s="4">
+        <v>313</v>
+      </c>
+      <c r="K27" s="15">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C28" s="4">
         <v>9</v>
@@ -5956,27 +6119,30 @@
         <v>22</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K28" s="4">
+        <v>313</v>
+      </c>
+      <c r="K28" s="15">
         <v>170.45000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C29" s="4">
         <v>1.44</v>
@@ -5991,27 +6157,30 @@
         <v>1.4</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K29" s="4">
+        <v>313</v>
+      </c>
+      <c r="K29" s="15">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C30" s="4">
         <v>57.5</v>
@@ -6026,27 +6195,30 @@
         <v>100</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K30" s="4">
+        <v>313</v>
+      </c>
+      <c r="K30" s="15">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C31" s="4">
         <v>45</v>
@@ -6061,27 +6233,30 @@
         <v>100</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K31" s="4">
+        <v>313</v>
+      </c>
+      <c r="K31" s="15">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C32" s="4">
         <v>18</v>
@@ -6096,27 +6271,30 @@
         <v>25</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K32" s="4">
+        <v>313</v>
+      </c>
+      <c r="K32" s="15">
         <v>56.75</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>333</v>
+      <c r="L32" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C33" s="4">
         <v>1515</v>
@@ -6142,16 +6320,19 @@
       <c r="J33" s="4">
         <v>100000</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L33" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C34" s="4">
         <v>138</v>
@@ -6177,16 +6358,19 @@
       <c r="J34" s="4">
         <v>800</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="15">
         <v>567.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C35" s="4">
         <v>9</v>
@@ -6201,27 +6385,30 @@
         <v>12.5</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L35" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C36" s="4">
         <v>0.54</v>
@@ -6236,27 +6423,30 @@
         <v>0.45</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C37" s="4">
         <v>1.5</v>
@@ -6271,27 +6461,30 @@
         <v>1.05</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L37" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C38" s="4">
         <v>3.55</v>
@@ -6306,27 +6499,30 @@
         <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C39" s="4">
         <v>0.36</v>
@@ -6341,27 +6537,30 @@
         <v>0.3</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C40" s="4">
         <v>8.36</v>
@@ -6376,27 +6575,30 @@
         <v>7</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C41" s="4">
         <v>4.09</v>
@@ -6411,27 +6613,30 @@
         <v>3.4</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C42" s="4">
         <v>64.5</v>
@@ -6446,62 +6651,68 @@
         <v>54</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L42" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L43" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C44" s="4">
         <v>409</v>
@@ -6516,116 +6727,165 @@
         <v>425</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="12">
+        <v>1</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="12">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12">
+        <v>1</v>
+      </c>
+      <c r="G46" s="12">
+        <v>2</v>
+      </c>
+      <c r="H46" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="I46" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="J46" s="12">
+        <v>1.6</v>
+      </c>
+      <c r="K46" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="L46" s="17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="F1" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="C2" s="4">
         <v>83.3</v>
@@ -6637,24 +6897,27 @@
         <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J2" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="4">
         <v>3.3</v>
@@ -6666,24 +6929,27 @@
         <v>2.78</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G3" s="4">
         <v>8.75</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J3" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C4" s="4">
         <v>0.87</v>
@@ -6695,24 +6961,27 @@
         <v>0.83</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J4" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="C5" s="4">
         <v>1.44</v>
@@ -6724,24 +6993,27 @@
         <v>1.35</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J5" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" s="4">
         <v>3.4</v>
@@ -6753,24 +7025,27 @@
         <v>3.2</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J6" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="4">
         <v>1.1299999999999999</v>
@@ -6782,24 +7057,27 @@
         <v>2.13</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J7" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C8" s="4">
         <v>0.56999999999999995</v>
@@ -6811,24 +7089,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G8" s="4">
         <v>3.25</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J8" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C9" s="4">
         <v>1.1299999999999999</v>
@@ -6840,24 +7121,27 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J9" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C10" s="4">
         <v>1.33</v>
@@ -6869,24 +7153,27 @@
         <v>1.25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C11" s="4">
         <v>5.1100000000000003</v>
@@ -6898,24 +7185,27 @@
         <v>4.78</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J11" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C12" s="4">
         <v>1.73</v>
@@ -6927,24 +7217,27 @@
         <v>1.63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J12" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C13" s="4">
         <v>0.44</v>
@@ -6956,24 +7249,27 @@
         <v>0.4</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G13" s="4">
         <v>4.25</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J13" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C14" s="4">
         <v>1.7</v>
@@ -6985,24 +7281,27 @@
         <v>1.6</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J14" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C15" s="4">
         <v>0.67</v>
@@ -7014,24 +7313,27 @@
         <v>0.63</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C16" s="4">
         <v>0.33</v>
@@ -7043,24 +7345,27 @@
         <v>0.25</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C17" s="4">
         <v>22.5</v>
@@ -7072,24 +7377,27 @@
         <v>22.5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J17" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C18" s="4">
         <v>1.67</v>
@@ -7101,24 +7409,27 @@
         <v>1.38</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J18" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C19" s="4">
         <v>20</v>
@@ -7130,27 +7441,30 @@
         <v>50</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J19" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D20" s="4">
         <v>0.05</v>
@@ -7159,27 +7473,30 @@
         <v>0.05</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J20" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>317</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D21" s="4">
         <v>0.03</v>
@@ -7188,24 +7505,27 @@
         <v>0.03</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C22" s="4">
         <v>1.33</v>
@@ -7217,24 +7537,27 @@
         <v>2.5</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C23" s="4">
         <v>0.85</v>
@@ -7246,24 +7569,27 @@
         <v>2.1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J23" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
@@ -7275,24 +7601,27 @@
         <v>1.5</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J24" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" s="4">
         <v>0.25</v>
@@ -7313,15 +7642,18 @@
         <v>3.75</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J25" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C26" s="4">
         <v>0.39</v>
@@ -7333,24 +7665,27 @@
         <v>0.6</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J26" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C27" s="4">
         <v>0.13</v>
@@ -7362,24 +7697,27 @@
         <v>0.13</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J27" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C28" s="4">
         <v>1.67</v>
@@ -7391,24 +7729,27 @@
         <v>2.5</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I28" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C29" s="4">
         <v>0.43</v>
@@ -7420,24 +7761,27 @@
         <v>0.45</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I29" s="4">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C30" s="4">
         <v>26.7</v>
@@ -7449,24 +7793,27 @@
         <v>20</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I30" s="4">
         <v>170.45000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C31" s="4">
         <v>1.67</v>
@@ -7478,24 +7825,27 @@
         <v>2.5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I31" s="4">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C32" s="4">
         <v>87.5</v>
@@ -7507,24 +7857,27 @@
         <v>75</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I32" s="4">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C33" s="4">
         <v>70</v>
@@ -7536,24 +7889,27 @@
         <v>75</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I33" s="4">
         <v>142</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C34" s="4">
         <v>25</v>
@@ -7565,24 +7921,27 @@
         <v>18.8</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I34" s="4">
         <v>56.75</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C35" s="4">
         <v>1110</v>
@@ -7603,15 +7962,18 @@
         <v>83325</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J35" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C36" s="4">
         <v>83.3</v>
@@ -7634,13 +7996,16 @@
       <c r="I36" s="4">
         <v>567.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C37" s="4">
         <v>12.7</v>
@@ -7652,24 +8017,27 @@
         <v>9.5</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J37" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C38" s="4">
         <v>1.47</v>
@@ -7681,24 +8049,27 @@
         <v>1.4</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J38" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C39" s="4">
         <v>1.05</v>
@@ -7710,24 +8081,27 @@
         <v>0.8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J39" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C40" s="4">
         <v>1.92</v>
@@ -7739,24 +8113,27 @@
         <v>1.43</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J40" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C41" s="4">
         <v>0.83</v>
@@ -7768,24 +8145,27 @@
         <v>0.63</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J41" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="4" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C42" s="4">
         <v>5.87</v>
@@ -7797,24 +8177,27 @@
         <v>4.5</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J42" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C43" s="4">
         <v>10.5</v>
@@ -7826,24 +8209,27 @@
         <v>8</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J43" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C44" s="4">
         <v>253</v>
@@ -7855,24 +8241,27 @@
         <v>188</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J44" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C45" s="4">
         <v>20</v>
@@ -7884,24 +8273,27 @@
         <v>17.5</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J45" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" s="4" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C46" s="4">
         <v>800</v>
@@ -7913,49 +8305,88 @@
         <v>600</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="J46" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
+      </c>
+      <c r="J47" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="12">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12">
+        <v>2</v>
+      </c>
+      <c r="G48" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="J48" s="17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>